--- a/data/trans_dic/P33A-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P33A-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.8451744061263545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8425032276216459</v>
+        <v>0.8425032276216461</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.7155547072921762</v>
@@ -664,7 +664,7 @@
         <v>0.7887224474068476</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7933177367538107</v>
+        <v>0.7933177367538108</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8347394459054932</v>
+        <v>0.8375061852084056</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8154353360256268</v>
+        <v>0.8171201458727843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8149191356393471</v>
+        <v>0.8120186456112864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.676257417730272</v>
+        <v>0.6770650496897671</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6956287383858294</v>
+        <v>0.6980575523856166</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7231971155384669</v>
+        <v>0.7216208295202192</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7694446201518381</v>
+        <v>0.7665402191043736</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7633911456457776</v>
+        <v>0.7651918780035797</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7728885633962799</v>
+        <v>0.7736519038294338</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8873366415566122</v>
+        <v>0.8892274153878955</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8742382282576904</v>
+        <v>0.8728409544959103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8671262243186554</v>
+        <v>0.868881057737113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7488395249432008</v>
+        <v>0.7473594413623743</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7651966032844914</v>
+        <v>0.7650296220719387</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7747140251920694</v>
+        <v>0.7699103879816621</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.811678520931876</v>
+        <v>0.8111141978002894</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8110235066025082</v>
+        <v>0.8107662670794107</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.812702985701845</v>
+        <v>0.8121574334904604</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.7230474803310706</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.7480334431056227</v>
+        <v>0.7480334431056228</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.7932905397358686</v>
@@ -773,7 +773,7 @@
         <v>0.7867299745873654</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.7928410702894308</v>
+        <v>0.7928410702894306</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8184016659929434</v>
+        <v>0.8195007681750682</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8285689755449012</v>
+        <v>0.8245118959459872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8132209529014853</v>
+        <v>0.8102172369468258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7174387313702624</v>
+        <v>0.7168932829060465</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6893972885359814</v>
+        <v>0.693337837804367</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7223752308887472</v>
+        <v>0.7268494240480575</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.772472052079957</v>
+        <v>0.7746992061572651</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7659182974739209</v>
+        <v>0.7649904124342496</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7756095917189851</v>
+        <v>0.7748374219821994</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8669683400567245</v>
+        <v>0.8673592107375553</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8753008740515449</v>
+        <v>0.8720286444743937</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8611274358777554</v>
+        <v>0.8620793968760893</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7726667737444984</v>
+        <v>0.7698014629364243</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7480770659377906</v>
+        <v>0.7533415609421746</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7685116930054916</v>
+        <v>0.76970055572548</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8113528451532714</v>
+        <v>0.8129319387074344</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8043830710466645</v>
+        <v>0.8043468033803082</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8088664905520282</v>
+        <v>0.8099054300710462</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.8668241929858428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8275115250286276</v>
+        <v>0.8275115250286277</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.7352778350130864</v>
@@ -882,7 +882,7 @@
         <v>0.8212725535774814</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7873825218593411</v>
+        <v>0.787382521859341</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8165814719061293</v>
+        <v>0.8191493460819466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8399507010388669</v>
+        <v>0.8400245524052111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7952022399754233</v>
+        <v>0.7982601068310146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6988781703387351</v>
+        <v>0.7034458468466774</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7451535873557721</v>
+        <v>0.7476976536695824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.718269020961139</v>
+        <v>0.7171416430523778</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7671964071474361</v>
+        <v>0.7680850670022008</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.799528512540317</v>
+        <v>0.8004342177559128</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7684400696481097</v>
+        <v>0.7656657418835863</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8722028675816652</v>
+        <v>0.8736355420390892</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8899013993090962</v>
+        <v>0.8894178661746546</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8543513738249207</v>
+        <v>0.8559285281634952</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7657082801105902</v>
+        <v>0.7668915552197167</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8038070020665909</v>
+        <v>0.8067790109073059</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7767340259165381</v>
+        <v>0.7728101572497403</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8093502243027566</v>
+        <v>0.8095579373022519</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.840222645284904</v>
+        <v>0.8403278211817665</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8102942469700108</v>
+        <v>0.8077684421411334</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.8080968039764119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8113008679901457</v>
+        <v>0.8113008679901458</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.7330560569356548</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8207805844151548</v>
+        <v>0.8208527639059704</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7809676046760679</v>
+        <v>0.7787603675900346</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7867118828260276</v>
+        <v>0.7880500991719628</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7052121764468556</v>
+        <v>0.7018246371903963</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6956147504840002</v>
+        <v>0.6969132834419419</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6953956402388435</v>
+        <v>0.6925174491786631</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7675329699107254</v>
+        <v>0.7671301571110667</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7441789769854348</v>
+        <v>0.7444506977165145</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.746106048807344</v>
+        <v>0.743290294618471</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8711009196980625</v>
+        <v>0.8676092055529935</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.834815658219425</v>
+        <v>0.8316037119195461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8359293627888243</v>
+        <v>0.836166615028878</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7588442546706867</v>
+        <v>0.7607436768719626</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7512966450326291</v>
+        <v>0.7524316934829217</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7439870849974695</v>
+        <v>0.7427585463024666</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8048820008220712</v>
+        <v>0.804170674337835</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7806056108391035</v>
+        <v>0.7820555375665103</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7807969434963794</v>
+        <v>0.779899904901981</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.8418193306372436</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8291834018817611</v>
+        <v>0.8291834018817612</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.73330991961533</v>
@@ -1100,7 +1100,7 @@
         <v>0.7881652949642197</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.7831358020422057</v>
+        <v>0.7831358020422056</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8355227235786861</v>
+        <v>0.8363689975158747</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8286130561075479</v>
+        <v>0.8283526230432625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.816187322381325</v>
+        <v>0.8157785977722531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7183307788989737</v>
+        <v>0.7183848724880929</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7206079959339199</v>
+        <v>0.7214863274920306</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7267852252604039</v>
+        <v>0.7268951485169785</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7796837855505699</v>
+        <v>0.7790984735029828</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7769686467501283</v>
+        <v>0.7782287879894464</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7731295489654819</v>
+        <v>0.7736057071347595</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8608174005569598</v>
+        <v>0.8614790309559898</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8537020422890653</v>
+        <v>0.8541549090160839</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8426746019202755</v>
+        <v>0.8431150226549353</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7479994395276697</v>
+        <v>0.7473563928724799</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7500434816736201</v>
+        <v>0.7526417624554893</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7525662586504011</v>
+        <v>0.7522350662302815</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7990651763573907</v>
+        <v>0.7996317895769098</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7978364528565328</v>
+        <v>0.7980074749237784</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7919723987592674</v>
+        <v>0.7920933387191219</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>584656</v>
+        <v>586594</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>546312</v>
+        <v>547441</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>561138</v>
+        <v>559141</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>468036</v>
+        <v>468595</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>463261</v>
+        <v>464878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>528696</v>
+        <v>527544</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1071455</v>
+        <v>1067410</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1019833</v>
+        <v>1022238</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1097220</v>
+        <v>1098303</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>621495</v>
+        <v>622819</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>585708</v>
+        <v>584772</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>597087</v>
+        <v>598295</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>518270</v>
+        <v>517246</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>509590</v>
+        <v>509479</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>566358</v>
+        <v>562846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1130266</v>
+        <v>1129480</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1083466</v>
+        <v>1083122</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1153742</v>
+        <v>1152967</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>828977</v>
+        <v>830090</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>830709</v>
+        <v>826642</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>849148</v>
+        <v>846012</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>739064</v>
+        <v>738503</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>706507</v>
+        <v>710546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>769405</v>
+        <v>774170</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1578211</v>
+        <v>1582761</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1552824</v>
+        <v>1550943</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1635980</v>
+        <v>1634351</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>878171</v>
+        <v>878567</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>877562</v>
+        <v>874281</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>899171</v>
+        <v>900165</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>795957</v>
+        <v>793006</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>766644</v>
+        <v>772039</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>818545</v>
+        <v>819811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1657647</v>
+        <v>1660873</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1630808</v>
+        <v>1630734</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1706128</v>
+        <v>1708320</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>614326</v>
+        <v>616258</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>637187</v>
+        <v>637243</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>634648</v>
+        <v>637088</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>539597</v>
+        <v>543124</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>579194</v>
+        <v>581171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>576406</v>
+        <v>575501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1169518</v>
+        <v>1170873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1227981</v>
+        <v>1229373</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1229956</v>
+        <v>1225515</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>656171</v>
+        <v>657249</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>675080</v>
+        <v>674713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>681854</v>
+        <v>683113</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>591196</v>
+        <v>592109</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>624784</v>
+        <v>627094</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>623324</v>
+        <v>620175</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1233778</v>
+        <v>1234094</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1290483</v>
+        <v>1290644</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1296947</v>
+        <v>1292904</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>768247</v>
+        <v>768314</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>723658</v>
+        <v>721613</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>774913</v>
+        <v>776231</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>731617</v>
+        <v>728102</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>716410</v>
+        <v>717748</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>771172</v>
+        <v>767980</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1514678</v>
+        <v>1513883</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1455995</v>
+        <v>1456527</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1562324</v>
+        <v>1556428</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>815346</v>
+        <v>812078</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>773554</v>
+        <v>770578</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>823392</v>
+        <v>823626</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>787257</v>
+        <v>789227</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>773757</v>
+        <v>774926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>825059</v>
+        <v>823696</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1588384</v>
+        <v>1586980</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1527264</v>
+        <v>1530101</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1634966</v>
+        <v>1633088</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2842146</v>
+        <v>2845025</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2782287</v>
+        <v>2781413</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2869599</v>
+        <v>2868162</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2536982</v>
+        <v>2537173</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2520654</v>
+        <v>2523727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2694643</v>
+        <v>2695051</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5405869</v>
+        <v>5401811</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5326679</v>
+        <v>5335318</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5584684</v>
+        <v>5588124</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2928189</v>
+        <v>2930440</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2866530</v>
+        <v>2868051</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2962724</v>
+        <v>2964273</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2641765</v>
+        <v>2639494</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2623618</v>
+        <v>2632707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2790230</v>
+        <v>2789002</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5540248</v>
+        <v>5544177</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>5469743</v>
+        <v>5470915</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5720795</v>
+        <v>5721669</v>
       </c>
     </row>
     <row r="24">
